--- a/data files/meristem_size_micrometre.xlsx
+++ b/data files/meristem_size_micrometre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasbertels/Google Drive/PhD/THESIS/CH1/example data and script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasbertels/Google Drive/PhD/Experiments/20161130 Kinematic/1. Data and analysis/Analysis files/analysis using script/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5E806D-0361-F340-AC60-554FD7F43FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D774C-58CB-1A49-B98C-BB22EA521C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2860" windowWidth="27240" windowHeight="16440" xr2:uid="{06B850C6-47C9-3D49-91EC-9CC2461A6B63}"/>
   </bookViews>
